--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150116.705603684</v>
+        <v>1176443.802094111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7000612.945265871</v>
+        <v>7041568.120391207</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>169.9759879929368</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>239.2905597077805</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>74.690817709366</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.169834715921</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>221.356299155636</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>122.0858687769022</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>348.0218137358997</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,7 +1145,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>141.3509401177975</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.58216279976261</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>161.838486137798</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8462026865797</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187.4537730419675</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>161.8384861377961</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.227720276594</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>13.01313443288577</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480023122</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.3659184736086</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>102.8562685532428</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>21.2036430816775</v>
       </c>
       <c r="S19" t="n">
-        <v>101.2878188239684</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>212.7767073753812</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2722,7 +2722,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>61.08641542222794</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>161.0723471410683</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>73.0151467619353</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>129.7139627068458</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314877</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3326,7 +3326,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430788</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3430,16 +3430,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>115.634879813834</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869773017</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314877</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>50.05924486567469</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.77283765621958</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394192</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>154.025442045437</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>167.4266980154668</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3952,13 +3952,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436911</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>166.3197703738365</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.08339867820236</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>206.8981232563541</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.92574903168972</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806116</v>
+        <v>1070.771279830439</v>
       </c>
       <c r="C2" t="n">
-        <v>259.1979521178799</v>
+        <v>632.6288070138628</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>600.7594262287114</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>359.0517901602462</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.224764609858</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307431</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050784</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1568.238183299064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257659</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1921.274083944542</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1516.418629355575</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>1501.31656997529</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.079196865519</v>
+        <v>1093.030446274943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400185</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067191</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245362</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>984.8338069824702</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>812.2720954656951</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>646.3941026672178</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>476.6360989179551</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>299.9290448797113</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.337769905539</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>45.67782068021431</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>196.7623387080738</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>614.9722204760349</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1074.456087656948</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1516.714890814592</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1936.384140040374</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010715</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2208.445763597214</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>2208.445763597214</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.797825151298</v>
+        <v>1921.490255467645</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.77142073759</v>
+        <v>1649.463851053937</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>1404.072096387349</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>1176.652425701457</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.515716940192</v>
+        <v>978.3722678587817</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>944.270199082609</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1277.130531135514</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1000.631434303285</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8013258914481</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>458.239614374673</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>292.3616215761957</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.431369962914</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.039615296327</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>822.6199446104351</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.603617826933</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.603617826933</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239594</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.92465755661</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,19 +5112,19 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.134188067672</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5724765508968</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6944837524195</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E13" t="n">
-        <v>578.9364800031568</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F13" t="n">
-        <v>402.2294259649129</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907406</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2308.274771460366</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>2021.319263330797</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1749.292858917088</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.901104250501</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.481433564609</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351989</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526433</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146349</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111513</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293656</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687543</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510709</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344105</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.6447693027</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239594</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112632</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429649</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363475</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774509</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.24256235382</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653473</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,10 +5349,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1012.231663489991</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C16" t="n">
-        <v>839.6699519732158</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D16" t="n">
-        <v>673.7919591747385</v>
+        <v>446.3722884888468</v>
       </c>
       <c r="E16" t="n">
-        <v>504.0339554254758</v>
+        <v>276.614284739584</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>99.90723070134027</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>99.90723070134027</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458048</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169404</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849015</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5467,7 +5467,7 @@
         <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
         <v>1721.468441289274</v>
@@ -5479,7 +5479,7 @@
         <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.050282208978</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181368</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510148</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423116</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742891</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953205</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953205</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953205</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523511</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356907</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315502</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068559</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252396</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125434</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442451</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376277</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787311</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366622</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666275</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.755093412664</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493063</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818288</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480411</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132064</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924271</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1088.981559807928</v>
+        <v>949.5782250957723</v>
       </c>
       <c r="C19" t="n">
-        <v>916.4198482911528</v>
+        <v>777.0165135789972</v>
       </c>
       <c r="D19" t="n">
-        <v>750.5418554926755</v>
+        <v>777.0165135789972</v>
       </c>
       <c r="E19" t="n">
-        <v>580.7838517434128</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>404.076797705169</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309966</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137117</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137117</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251577</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2697.502628878956</v>
       </c>
       <c r="S19" t="n">
-        <v>2591.514208924524</v>
+        <v>2697.502628878956</v>
       </c>
       <c r="T19" t="n">
-        <v>2345.634762502979</v>
+        <v>2451.623182457411</v>
       </c>
       <c r="U19" t="n">
-        <v>2067.201761756085</v>
+        <v>2173.190181710516</v>
       </c>
       <c r="V19" t="n">
-        <v>1780.246253626515</v>
+        <v>1886.234673580947</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.219849212807</v>
+        <v>1614.208269167239</v>
       </c>
       <c r="X19" t="n">
-        <v>1508.219849212807</v>
+        <v>1368.816514500651</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.800178526915</v>
+        <v>1141.396843814759</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,34 +5759,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5887,16 +5887,16 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5914,7 +5914,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,22 +5996,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477116</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309365</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702765</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419178</v>
+        <v>1533.485159127727</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066699</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6227,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
         <v>5113.04201353898</v>
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2657.217000252137</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T28" t="n">
-        <v>2411.337553830592</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U28" t="n">
-        <v>2132.904553083697</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V28" t="n">
-        <v>1845.949044954127</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.8255515988633</v>
+        <v>949.5782250957669</v>
       </c>
       <c r="C31" t="n">
-        <v>703.2638400820882</v>
+        <v>777.0165135789919</v>
       </c>
       <c r="D31" t="n">
-        <v>537.3858472836109</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6634,37 +6634,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2623.749955382048</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2377.870508960503</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2099.437508213608</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1812.482000084038</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.45559567033</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1295.063841003742</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1067.64417031785</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1083.781082102101</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>911.2193705853255</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>745.3413777868482</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>575.5833740375854</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>398.8763199993416</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>233.2850450251694</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1275.599700821088</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,64 +6923,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004237</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688195</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321679</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.13136353223</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968676</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538983</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538983</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538983</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7017,37 +7017,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7056,10 +7056,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883917</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716166</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731393</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>356.5120644702766</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771612</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.807784200425</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
         <v>406.885835245268</v>
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7275,16 +7275,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
         <v>1196.412455590541</v>
@@ -7293,10 +7293,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.7810588588596</v>
+        <v>811.7546776883986</v>
       </c>
       <c r="C40" t="n">
-        <v>754.2193473420841</v>
+        <v>639.1929661716235</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420841</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928213</v>
+        <v>418.870068618649</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545776</v>
+        <v>242.1630145804052</v>
       </c>
       <c r="G40" t="n">
         <v>242.1630145804052</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2674.705462642044</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2428.826016220499</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.393015473604</v>
+        <v>2035.366634303143</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.437507344035</v>
+        <v>1748.411126173573</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.411102930326</v>
+        <v>1476.384721759865</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.019348263738</v>
+        <v>1230.992967093277</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.599677577847</v>
+        <v>1003.573296407386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305236</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305236</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410827</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981134</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814529</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773125</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526181</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710018</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583057</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305236</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909812</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571935</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271526</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778899</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396461</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558483</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305236</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436691</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015146</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268252</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V43" t="n">
-        <v>2012.101441268252</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213871</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2522.958394689264</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D44" t="n">
         <v>1648.906137047132</v>
@@ -7646,49 +7646,49 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>403.2461837293682</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633332</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W44" t="n">
         <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y44" t="n">
         <v>2949.257965174172</v>
@@ -7728,22 +7728,22 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.091494878162</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
         <v>1642.802960065584</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292996</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I46" t="n">
         <v>96.73597668111518</v>
@@ -7831,25 +7831,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2696.298870390288</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T46" t="n">
-        <v>2450.419423968744</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.986423221849</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V46" t="n">
-        <v>1885.030915092279</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.004510678571</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X46" t="n">
-        <v>1367.612756011983</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011983</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294867</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457075</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9887,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465049</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.9723436528775</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>267.5985112554897</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>50.14457787893207</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.446659489829699</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>267.5985112554916</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>161.9268490649756</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.3636110865061</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>178.3951296148023</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>65.2041551585273</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>56.36113619101494</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>56.52943299419015</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>96.56253959275536</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.146865729424206</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>84.633808253048</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859683376</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>52.42554389793614</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>114.1599680048178</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>113.8761173587638</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>268.0111327346217</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>89.20338164068644</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.731956399799</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>49.7319563997992</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7232059832936</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>586343.8824597758</v>
+        <v>595369.2233100538</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>586343.8824597758</v>
+        <v>601309.6849289766</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>586343.8824597758</v>
+        <v>601309.6849289766</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595530.2075378455</v>
+        <v>595530.2075378457</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595530.2075378456</v>
+        <v>595530.2075378457</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>603933.7179499213</v>
+        <v>620662.2628190465</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620662.2628190464</v>
+        <v>620662.2628190465</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620662.2628190464</v>
+        <v>620662.2628190463</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190465</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612258.7524069711</v>
+        <v>595530.2075378457</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294651</v>
+        <v>366504.8260294655</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294654</v>
+        <v>366504.8260294653</v>
       </c>
       <c r="G2" t="n">
-        <v>371676.5655695101</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
@@ -26338,7 +26338,7 @@
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
@@ -26347,13 +26347,13 @@
         <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="O2" t="n">
-        <v>376800.0089595357</v>
+        <v>366504.8260294653</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294654</v>
+        <v>366504.8260294652</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745929</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104285095</v>
+        <v>18928.52796216478</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996304</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393348</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418668</v>
+        <v>181417.5324886664</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804608</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804608</v>
+        <v>78141.89423804609</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275087</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
         <v>81439.57146904283</v>
@@ -26445,16 +26445,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904273</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.91334433807</v>
+        <v>78141.89423804611</v>
       </c>
       <c r="P4" t="n">
         <v>78141.89423804611</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696287</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024209</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319795</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764752</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18870.25471825287</v>
+        <v>-52399.57303277642</v>
       </c>
       <c r="C6" t="n">
-        <v>123321.045941457</v>
+        <v>118041.1591617707</v>
       </c>
       <c r="D6" t="n">
-        <v>123321.045941457</v>
+        <v>149231.1940992301</v>
       </c>
       <c r="E6" t="n">
-        <v>-19511.4325082657</v>
+        <v>53031.95574886064</v>
       </c>
       <c r="F6" t="n">
-        <v>214843.5895137718</v>
+        <v>214767.0309589749</v>
       </c>
       <c r="G6" t="n">
-        <v>211179.4573636662</v>
+        <v>203862.1861231978</v>
       </c>
       <c r="H6" t="n">
-        <v>210411.1834447819</v>
+        <v>222790.7140853625</v>
       </c>
       <c r="I6" t="n">
-        <v>222813.938424745</v>
+        <v>222790.7140853625</v>
       </c>
       <c r="J6" t="n">
-        <v>111799.4730797548</v>
+        <v>73399.11765968753</v>
       </c>
       <c r="K6" t="n">
-        <v>222813.9384247451</v>
+        <v>197943.7773014288</v>
       </c>
       <c r="L6" t="n">
-        <v>222813.9384247451</v>
+        <v>222790.7140853625</v>
       </c>
       <c r="M6" t="n">
-        <v>27212.75914167752</v>
+        <v>87800.76947235901</v>
       </c>
       <c r="N6" t="n">
-        <v>222813.9384247451</v>
+        <v>222790.7140853625</v>
       </c>
       <c r="O6" t="n">
-        <v>220148.8595319997</v>
+        <v>214767.0309589748</v>
       </c>
       <c r="P6" t="n">
-        <v>214843.5895137718</v>
+        <v>214767.0309589748</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.29185526714</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,13 +26820,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631545</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320047</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760556</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.5424481051781</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320047</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760556</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>261.5746989843631</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>190.1464376855073</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>168.7298342479633</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.86674006413773</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>182.8469633077071</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>147.2202715926691</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>83.52887324140022</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28020,13 +28020,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>33.58904338006383</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.5633111792702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.18111195053772e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.333173819759394e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.400614303797194e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30435,7 +30435,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>6.527898221975192e-12</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026789</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>527.3158022709897</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026787</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320369</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705652</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294867</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457075</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908051</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111857</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080417</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36604,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36765,13 +36765,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512952</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465049</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352469</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.4542274390806</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.9723436528775</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
